--- a/biology/Histoire de la zoologie et de la botanique/Pierre_Fourmanoir/Pierre_Fourmanoir.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Pierre_Fourmanoir/Pierre_Fourmanoir.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre Fourmanoir, né le 19 octobre 1924 à Paris et mort le 2 mai 2007 à Bry-sur-Marne[1], est un ingénieur agronome et ichtyologiste français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre Fourmanoir, né le 19 octobre 1924 à Paris et mort le 2 mai 2007 à Bry-sur-Marne, est un ingénieur agronome et ichtyologiste français.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Fourmanoir est issu de l'école d'ingénieur agronome de Grignon, certifié en zoologie.
 En 1948, il est recruté par l'Office de la recherche scientifique et technique outre-mer (ORSTOM). Titularisé en 1950, il est envoyé à Madagascar où il restera jusqu'en 1963. Durant cette période, il participe activement aux recherches et à l'étude du Cœlacanthe autour de l'archipel des Comores, dans l'équipe scientifique du professeur Jacques Millot.
